--- a/TestCase/TestReport.xlsx
+++ b/TestCase/TestReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester 5\SWT301\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Semester5\SWT301\SWT\TestCase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>Feature</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t>status code is 200 - return details timeshare by staff</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -556,6 +559,9 @@
     <xf numFmtId="14" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -566,9 +572,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -853,7 +856,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,12 +874,12 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35"/>
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
       <c r="H1" s="2"/>
@@ -892,12 +895,12 @@
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
       <c r="F2" s="6"/>
       <c r="G2" s="7"/>
       <c r="H2" s="2"/>
@@ -913,12 +916,12 @@
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="36">
         <v>5</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
       <c r="F3" s="6"/>
       <c r="G3" s="7"/>
       <c r="H3" s="2"/>
@@ -962,10 +965,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="16">
         <v>0</v>
@@ -989,10 +992,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="16">
         <v>0</v>
@@ -1016,10 +1019,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="21">
         <v>0</v>
@@ -1128,7 +1131,7 @@
       <c r="B11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="32" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1138,7 +1141,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="30" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="G11" s="31">
         <v>45369</v>
@@ -1147,7 +1150,7 @@
         <v>21</v>
       </c>
       <c r="I11" s="30" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="J11" s="31">
         <v>45369</v>
@@ -1156,7 +1159,7 @@
         <v>21</v>
       </c>
       <c r="L11" s="30" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="M11" s="31">
         <v>45369</v>
@@ -1173,7 +1176,7 @@
       <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="32" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -1218,7 +1221,7 @@
       <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="32" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1263,7 +1266,7 @@
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="32" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1308,7 +1311,7 @@
       <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="32" t="s">
         <v>34</v>
       </c>
       <c r="D15" s="3" t="s">
